--- a/bill.xlsx
+++ b/bill.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
-    <t>二级类别</t>
+    <t>产品名</t>
+  </si>
+  <si>
+    <t>净出库数量</t>
   </si>
   <si>
     <t>净赠酒数量</t>
@@ -28,37 +31,40 @@
     <t>sum</t>
   </si>
   <si>
-    <t>瓶装酒</t>
-  </si>
-  <si>
-    <t>500听装酒</t>
-  </si>
-  <si>
-    <t>330听装酒</t>
-  </si>
-  <si>
-    <t>销售员</t>
-  </si>
-  <si>
-    <t>产品名</t>
-  </si>
-  <si>
-    <t>丛文武</t>
-  </si>
-  <si>
-    <t>孙洪杰</t>
-  </si>
-  <si>
-    <t>青岛500听</t>
+    <t>青岛奥古特</t>
   </si>
   <si>
     <t>青岛纯生</t>
+  </si>
+  <si>
+    <t>青岛1903瓶啤</t>
+  </si>
+  <si>
+    <t>青岛经典啤酒(500ML)</t>
+  </si>
+  <si>
+    <t>崂山精品</t>
+  </si>
+  <si>
+    <t>客户名称</t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>船舶丽港--市里</t>
+  </si>
+  <si>
+    <t>船舶丽港--蒿泊</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -111,9 +117,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -410,111 +419,187 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" spans="1:17">
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="H2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+    </row>
+    <row r="3" spans="1:17">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="J3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="O3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="B5" s="2">
+        <v>42920</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G5">
-        <v>511.17</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>30</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
+      <c r="B6" s="2">
+        <v>42923</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -522,37 +607,89 @@
       <c r="H6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2">
+        <v>42925</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>10</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>10</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>30</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
+      <c r="B8" s="2">
+        <v>42929</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -564,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -572,15 +709,760 @@
       <c r="H8">
         <v>0</v>
       </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>40</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2">
+        <v>42935</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>30</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>10</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>30</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2">
+        <v>42943</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>40</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>40</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2">
+        <v>42949</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>40</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>10</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>40</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2">
+        <v>42954</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>30</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>30</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2">
+        <v>42961</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>30</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>30</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2">
+        <v>42966</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>30</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>30</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
+        <v>42917</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>15</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>15</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2">
+        <v>42922</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>15</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>10</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>15</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2">
+        <v>42927</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>15</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>15</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2">
+        <v>42933</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>15</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>15</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2">
+        <v>42943</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>15</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>15</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2">
+        <v>42951</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>15</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>15</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2">
+        <v>42959</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>15</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>15</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2">
+        <v>42965</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>15</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>15</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
+  <mergeCells count="8">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="A5:A14"/>
+    <mergeCell ref="A15:A22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
